--- a/document/02.概要設計/xlsx/画面イメージ.xlsx
+++ b/document/02.概要設計/xlsx/画面イメージ.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uratamanabu/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{23F51C1A-D8EB-E944-AD05-69BA1F977D34}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5A1E7D1C-D1E8-B941-B1E3-AD171E513612}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{384A8563-C8BD-FE44-9867-357BF43642E6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{384A8563-C8BD-FE44-9867-357BF43642E6}"/>
   </bookViews>
   <sheets>
     <sheet name="共通部" sheetId="1" r:id="rId1"/>
     <sheet name="サンプル" sheetId="2" r:id="rId2"/>
     <sheet name="書籍登録申請" sheetId="3" r:id="rId3"/>
     <sheet name="申請一覧画面" sheetId="4" r:id="rId4"/>
+    <sheet name="DB" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>PC画面イメージ</t>
     <rPh sb="0" eb="2">
@@ -65,13 +66,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>書籍登録申請画面</t>
-    <rPh sb="0" eb="2">
-      <t>ショセキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ISBNコードを入力するフィールドです。</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
@@ -89,34 +83,6 @@
     <t>サジェスト機能を用いて、書籍名称の入力をサポートする。</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力確定後下記動作をする。</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・⑤にISBN情報を記載する。</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力時、④のテキストボックスを初期化＆非活性化する。</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力時、②のテキストボックスを初期化＆非活性化する。</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -143,14 +109,14 @@
   </si>
   <si>
     <t>[書籍登録申請確認画面]へ遷移する。</t>
-    <rPh sb="35" eb="37">
+    <rPh sb="0" eb="18">
       <t>ショセキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>[書籍登録申請画面]へ遷移する。</t>
-    <rPh sb="33" eb="35">
+    <rPh sb="0" eb="16">
       <t>ショセキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -158,10 +124,7 @@
   <si>
     <t>[書籍登録申請完了画面]へ遷移する。</t>
     <rPh sb="0" eb="2">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ショセキ</t>
+      <t>カンリョウショセキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -291,12 +254,97 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>※　書籍名称だけでユニークにならないのでは？</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※　書籍を一度検索して、申請内容に絞り込む必要がある。</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※　書籍名称が一意にならないときはISBNが必要じゃないか？</t>
+    <rPh sb="0" eb="1">
+      <t>ショセキメイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※　検索条件に出しているものはすべて出していいのでは？項目少ないし</t>
+    <rPh sb="0" eb="1">
+      <t>ケンサクジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※　申請が完了した後の、本の仕入れとかは考慮しないのか？</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※　本がいつ頃購入できるかとかとか</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※　昔申請して、承認がもらえなかった本を復活させる時のルートが考慮不足</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新回数</t>
+    <rPh sb="0" eb="2">
+      <t>コウシンカイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録日時</t>
+    <rPh sb="0" eb="2">
+      <t>トウロクニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーケンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍登録申請画面(全体)</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍登録申請画面(検索条件部)</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -307,6 +355,14 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -335,8 +391,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1314,7 +1373,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>825500</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1386,30 +1445,854 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>850900</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="対角する 2 つの角を切り取った四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2EB5EB1-2544-7E45-9107-A8794CFD2717}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2717800" y="3251200"/>
+          <a:ext cx="2895600" cy="1168400"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2DiagRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ISBN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>情報フィード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="角丸四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B7F3CB5-583C-1D47-898A-BBB43FA057B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5397500" y="6083300"/>
+          <a:ext cx="1612900" cy="774700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>⑫次へ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="角丸四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C6D4BDC-BEB1-F549-AABF-79A2584E6A75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11430000" y="6350000"/>
+          <a:ext cx="1612900" cy="774700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>⑫次へ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="角丸四角形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79E1ACA2-CE1B-C645-B8B7-EC8E1F99A4F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="9398000"/>
+          <a:ext cx="8420100" cy="6305550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="対角する 2 つの角を切り取った四角形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15F1DC33-C71A-134C-8245-9CB364DDFBD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2908300" y="10083800"/>
+          <a:ext cx="2895600" cy="1168400"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2DiagRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ISBN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>情報フィード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="角丸四角形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F220CA7F-76EC-9741-9024-44244B39E8B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7340600" y="14312900"/>
+          <a:ext cx="1612900" cy="774700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>③次へ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="角丸四角形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D5AF32-BAF0-8744-B0A6-12BB06AF53CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3644900" y="14312900"/>
+          <a:ext cx="1612900" cy="774700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>②戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="角丸四角形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809A498C-0E9C-CC4A-A1A6-CA434557828D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11430000" y="10922000"/>
+          <a:ext cx="1612900" cy="774700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>②戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="角丸四角形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{778EF6AB-871A-B242-B525-69B9377C6E6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11430000" y="12700000"/>
+          <a:ext cx="1612900" cy="774700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>③次へ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="角丸四角形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60D22F2-8A6C-3B49-AA0D-2451EF28BC8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="17018000"/>
+          <a:ext cx="8420100" cy="6305550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="対角する 2 つの角を切り取った四角形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3883DB9A-411C-9948-9549-D160D076BC8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2882900" y="18199100"/>
+          <a:ext cx="2895600" cy="1168400"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2DiagRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①申請情報フィード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="対角する 2 つの角を切り取った四角形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72FAEE41-E3EE-F548-8465-60C49EDEA929}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11430000" y="17272000"/>
+          <a:ext cx="2895600" cy="1168400"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2DiagRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①申請情報フィード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B553661A-0D2B-0D40-AA4B-6E01B1267902}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2755900" y="2562225"/>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8AE4A58-B7D7-EC4B-B943-4EA791A1A1DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2755900" y="3359150"/>
           <a:ext cx="2184400" cy="393700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1457,323 +2340,8 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>③</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ISBN</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="直方体 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADE02C16-1FA3-794D-89DA-100BABF7F964}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5168900" y="2393950"/>
-          <a:ext cx="2209800" cy="673100"/>
-        </a:xfrm>
-        <a:prstGeom prst="cube">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>④テキストボックス</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="対角する 2 つの角を切り取った四角形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2EB5EB1-2544-7E45-9107-A8794CFD2717}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7632700" y="1689100"/>
-          <a:ext cx="2895600" cy="1168400"/>
-        </a:xfrm>
-        <a:prstGeom prst="snip2DiagRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>⑤</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ISBN</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>情報フィード</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="直方体 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CB04785-237A-0B44-8DEF-DF3EE18C7948}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11430000" y="1016000"/>
-          <a:ext cx="2209800" cy="673100"/>
-        </a:xfrm>
-        <a:prstGeom prst="cube">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>②テキストボックス</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="直方体 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A112F11-A412-F044-9379-935271F7BE15}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5168900" y="1587500"/>
-          <a:ext cx="2209800" cy="673100"/>
-        </a:xfrm>
-        <a:prstGeom prst="cube">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>②テキストボックス</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
+            <a:t>⑥希望者</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1783,29 +2351,29 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>850900</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6C84DB2-92B9-AB46-B5F4-3114C64BDA4B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2755900" y="1765300"/>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>231775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B37A459-6E90-1341-8CB8-C45F8FE3F539}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2755900" y="4156075"/>
           <a:ext cx="2184400" cy="393700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1853,75 +2421,104 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>①書籍名称</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="直方体 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86DA794E-C18B-7346-8E85-3CE7BBD90D6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11430000" y="3810000"/>
-          <a:ext cx="2209800" cy="673100"/>
-        </a:xfrm>
-        <a:prstGeom prst="cube">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
+            <a:t>⑧価格</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>④テキストボックス</a:t>
+            <a:t>税抜き</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="直方体 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C8093FA-8AFC-574A-9597-D8607036B67F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5168900" y="4006850"/>
+          <a:ext cx="2209800" cy="673100"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑨テキストボックス</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
             <a:solidFill>
@@ -1935,772 +2532,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="角丸四角形 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B7F3CB5-583C-1D47-898A-BBB43FA057B7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5397500" y="6083300"/>
-          <a:ext cx="1612900" cy="774700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>⑫次へ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="角丸四角形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C6D4BDC-BEB1-F549-AABF-79A2584E6A75}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11430000" y="6350000"/>
-          <a:ext cx="1612900" cy="774700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>⑫次へ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="角丸四角形 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79E1ACA2-CE1B-C645-B8B7-EC8E1F99A4F6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1905000" y="9398000"/>
-          <a:ext cx="8420100" cy="6305550"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent2">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="対角する 2 つの角を切り取った四角形 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15F1DC33-C71A-134C-8245-9CB364DDFBD9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2908300" y="10083800"/>
-          <a:ext cx="2895600" cy="1168400"/>
-        </a:xfrm>
-        <a:prstGeom prst="snip2DiagRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>①</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ISBN</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>情報フィード</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="角丸四角形 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F220CA7F-76EC-9741-9024-44244B39E8B7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7340600" y="14312900"/>
-          <a:ext cx="1612900" cy="774700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>③次へ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="角丸四角形 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D5AF32-BAF0-8744-B0A6-12BB06AF53CC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3644900" y="14312900"/>
-          <a:ext cx="1612900" cy="774700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>②戻る</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="角丸四角形 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809A498C-0E9C-CC4A-A1A6-CA434557828D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11430000" y="10922000"/>
-          <a:ext cx="1612900" cy="774700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>②戻る</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="角丸四角形 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{778EF6AB-871A-B242-B525-69B9377C6E6B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11430000" y="12700000"/>
-          <a:ext cx="1612900" cy="774700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>③次へ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="角丸四角形 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60D22F2-8A6C-3B49-AA0D-2451EF28BC8E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1905000" y="17018000"/>
-          <a:ext cx="8420100" cy="6305550"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent2">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="対角する 2 つの角を切り取った四角形 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3883DB9A-411C-9948-9549-D160D076BC8E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2882900" y="18199100"/>
-          <a:ext cx="2895600" cy="1168400"/>
-        </a:xfrm>
-        <a:prstGeom prst="snip2DiagRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>①申請情報フィード</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="対角する 2 つの角を切り取った四角形 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72FAEE41-E3EE-F548-8465-60C49EDEA929}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11430000" y="17272000"/>
-          <a:ext cx="2895600" cy="1168400"/>
-        </a:xfrm>
-        <a:prstGeom prst="snip2DiagRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>①申請情報フィード</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>850900</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8AE4A58-B7D7-EC4B-B943-4EA791A1A1DB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2755900" y="3359150"/>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A81C34F-48AA-5B41-9790-61B36EBCD13D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2755900" y="4953000"/>
           <a:ext cx="2184400" cy="393700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2743,12 +2599,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑩</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>⑥希望者</a:t>
+            <a:t>理由</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2759,29 +2623,29 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="直方体 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C098505E-7362-0B41-8D71-1291F5BF23FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5168900" y="3200400"/>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="直方体 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F46AD216-5F4F-2E4E-8AAB-FD753DF1141C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5168900" y="4813300"/>
           <a:ext cx="2209800" cy="673100"/>
         </a:xfrm>
         <a:prstGeom prst="cube">
@@ -2816,7 +2680,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>⑦テキストボックス</a:t>
+            <a:t>⑪テキストボックス</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
             <a:solidFill>
@@ -2831,30 +2695,258 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>850900</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="角丸四角形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9697653C-1A3C-1346-BEA4-288CECAD9D71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="1638300"/>
+          <a:ext cx="6692900" cy="1054100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>①検索部</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>工事中</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>231775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B37A459-6E90-1341-8CB8-C45F8FE3F539}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2755900" y="4156075"/>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="直方体 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEFE2038-472F-274D-B4A8-6CF378B3632C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5156200" y="4660900"/>
+          <a:ext cx="2209800" cy="673100"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑨テキストボックス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="角丸四角形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1100E192-920D-F747-B28E-0C92E722447A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="10160000"/>
+          <a:ext cx="8420100" cy="5511800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1A0801B-74A7-114F-BF52-8B6218FC3959}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2908300" y="10934700"/>
           <a:ext cx="2184400" cy="393700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2902,142 +2994,40 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>⑧価格</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>税抜き</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
+            <a:t>①書籍名称</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="直方体 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C8093FA-8AFC-574A-9597-D8607036B67F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5168900" y="4006850"/>
-          <a:ext cx="2209800" cy="673100"/>
-        </a:xfrm>
-        <a:prstGeom prst="cube">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>⑨テキストボックス</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>850900</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="正方形/長方形 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A81C34F-48AA-5B41-9790-61B36EBCD13D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2755900" y="4953000"/>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9FE6AFD-943E-F14D-AC41-6B571AE00BBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2895600" y="11861800"/>
           <a:ext cx="2184400" cy="393700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3080,21 +3070,99 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>⑩</a:t>
-          </a:r>
+            <a:t>ISBN</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="直方体 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F5099E6-6B04-6644-9494-D0689560D938}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5689600" y="10706100"/>
+          <a:ext cx="2209800" cy="673100"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>理由</a:t>
-          </a:r>
+            <a:t>②テキストボックス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3103,30 +3171,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="直方体 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F46AD216-5F4F-2E4E-8AAB-FD753DF1141C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5168900" y="4813300"/>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="直方体 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{217A1CA1-4090-174C-AB34-B3753A36A28B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5651500" y="11722100"/>
           <a:ext cx="2209800" cy="673100"/>
         </a:xfrm>
         <a:prstGeom prst="cube">
@@ -3161,7 +3229,277 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>⑪テキストボックス</a:t>
+            <a:t>④テキストボックス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="角丸四角形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E9FF639-E428-2D41-8BB6-07A956064949}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172200" y="12966700"/>
+          <a:ext cx="1612900" cy="774700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>⑤検索</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="角丸四角形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BC1D35B-B640-454B-827A-DD4FC7CDEA9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2565400" y="13957300"/>
+          <a:ext cx="6692900" cy="1054100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>⑥検索結果</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="直方体 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4108FAEE-9897-FC4A-A547-C603A4CCC444}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11430000" y="10414000"/>
+          <a:ext cx="2209800" cy="673100"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②テキストボックス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="直方体 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2675BE6B-526F-AC4B-800A-7AE86B10C17C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11430000" y="12192000"/>
+          <a:ext cx="2209800" cy="673100"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>④テキストボックス</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
             <a:solidFill>
@@ -6284,6 +6622,278 @@
               <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="正方形/長方形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBA650F5-ED08-C646-BD66-42FC01B4C1C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933700" y="22199600"/>
+          <a:ext cx="2184400" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:schemeClr val="accent6">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑥購入予定日</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>任意</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="直方体 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D76F62E0-1A46-1744-8EEF-89AC0E701840}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740400" y="22148800"/>
+          <a:ext cx="2209800" cy="673100"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑤テキストボックス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="正方形/長方形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F4E5098-34A4-6C4A-9FDC-87772F4F3A25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2730500" y="13169900"/>
+          <a:ext cx="2184400" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:schemeClr val="accent6">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑬</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ステータス</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6591,7 +7201,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67600A8-9A04-734D-8D42-C5D4A652EDD0}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
@@ -6656,10 +7268,108 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DB1923-978B-0849-9EFC-A6DE3B486F38}">
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:M105"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M58" sqref="M58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="M36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="M37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="M46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="M47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="13:13">
+      <c r="M53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="13:13">
+      <c r="M54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="13:13">
+      <c r="M56" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="13:13">
+      <c r="M57" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13">
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13">
+      <c r="M78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13">
+      <c r="M85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13">
+      <c r="B95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="13:13">
+      <c r="M105" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548F3E5E-E8FD-ED42-9620-C4780273E0F2}">
+  <dimension ref="A1:P89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M92" sqref="M92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -6671,92 +7381,107 @@
     </row>
     <row r="3" spans="1:13">
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="M8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="M9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="M10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="M12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="M13" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="13:13">
       <c r="M19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="13:13">
-      <c r="M20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="13:13">
-      <c r="M21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="13:13">
-      <c r="M23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="13:13">
-      <c r="M24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="13:13">
-      <c r="M30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="13:13">
-      <c r="M31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13">
-      <c r="B35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13">
-      <c r="M48" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="13:13">
-      <c r="M55" t="s">
+    <row r="26" spans="13:13">
+      <c r="M26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="2:13">
-      <c r="B65" t="s">
-        <v>19</v>
+    <row r="33" spans="2:13">
+      <c r="B33" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="75" spans="2:13">
-      <c r="M75" t="s">
-        <v>20</v>
+    <row r="40" spans="2:13">
+      <c r="M40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="M45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16">
+      <c r="M50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16">
+      <c r="M55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16">
+      <c r="M60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16">
+      <c r="B61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16">
+      <c r="P64" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16">
+      <c r="P65" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16">
+      <c r="M68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16">
+      <c r="B72" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16">
+      <c r="M78" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="13:13">
+      <c r="M83" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="13:13">
+      <c r="M84" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="13:13">
+      <c r="M87" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="13:13">
+      <c r="M88" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="89" spans="13:13">
+      <c r="M89" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -6766,104 +7491,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548F3E5E-E8FD-ED42-9620-C4780273E0F2}">
-  <dimension ref="A1:M84"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2CCF2E-97EE-1C43-98A2-733D751C8CFC}">
+  <dimension ref="B2:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L94" sqref="L93:L94"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="M12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="13:13">
-      <c r="M19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="13:13">
-      <c r="M26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13">
-      <c r="B33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13">
-      <c r="M40" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13">
-      <c r="M45" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13">
-      <c r="M50" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13">
-      <c r="M55" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="2:13">
-      <c r="M60" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="2:13">
-      <c r="B61" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="68" spans="2:13">
-      <c r="M68" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="72" spans="2:13">
-      <c r="B72" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="78" spans="2:13">
-      <c r="M78" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="83" spans="13:13">
-      <c r="M83" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="84" spans="13:13">
-      <c r="M84" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>